--- a/cypress/downloads/order-invoice_mrlocspoc.xlsx
+++ b/cypress/downloads/order-invoice_mrlocspoc.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>659777599fd99c85e8fe6106</v>
+        <v>659a302a9fd99c85e8006dad</v>
       </c>
       <c r="B2" t="str">
         <v>ADIDAS ORIGINAL</v>

--- a/cypress/downloads/order-invoice_mrlocspoc.xlsx
+++ b/cypress/downloads/order-invoice_mrlocspoc.xlsx
@@ -424,7 +424,7 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>659a302a9fd99c85e8006dad</v>
+        <v>659a332a9fd99c85e80073ad</v>
       </c>
       <c r="B2" t="str">
         <v>ADIDAS ORIGINAL</v>
